--- a/biology/Botanique/Travail_du_bois/Travail_du_bois.xlsx
+++ b/biology/Botanique/Travail_du_bois/Travail_du_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois est un matériau naturel, vivant et d'une grande longévité s'il est correctement entretenu. Il en existe de nombreuses essences et de nombreux usages. 
-Les hommes de la préhistoire s'en sont toujours servi pour des armes (épieux), pour des outils dont nous n'avons aucune trace et pour alimenter leurs foyers. À la fin du Paléolithique, la présence de pointes de flèche témoigne des arcs mais il faut attendre la sédentarisation, au Néolithique, pour mieux connaître les innombrables outils et ustensiles que les gisements immergés ont conservés. Ces sites sont rares et les techniques de fouilles doivent être particulièrement fines et délicates pour recueillir les objets en bois, toujours très fragiles. Ce fut le cas à Charavines, Isère, où une grande variété de pièces témoigne de l'artisanat du bois par des hommes ingénieux et habiles [1]     
+Les hommes de la préhistoire s'en sont toujours servi pour des armes (épieux), pour des outils dont nous n'avons aucune trace et pour alimenter leurs foyers. À la fin du Paléolithique, la présence de pointes de flèche témoigne des arcs mais il faut attendre la sédentarisation, au Néolithique, pour mieux connaître les innombrables outils et ustensiles que les gisements immergés ont conservés. Ces sites sont rares et les techniques de fouilles doivent être particulièrement fines et délicates pour recueillir les objets en bois, toujours très fragiles. Ce fut le cas à Charavines, Isère, où une grande variété de pièces témoigne de l'artisanat du bois par des hommes ingénieux et habiles      
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Les métiers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De nombreux métiers comme les fabricants de carrosse, les charrons ou les sabotiers ont disparu, avec l'apparition de nouveaux matériaux.
 Voici une liste des métiers actuels, en relation avec le bois :
@@ -553,7 +567,9 @@
           <t>Techniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les gestes de base du travail du bois sont la découpe, le perçage, les finitions (ponçage, traitements), et les assemblages (mécaniques ou chimiques).
 Le bois d'œuvre doit d'abord être abattu, puis débité (ébranchage, tronçonnage, écorçage, mise en planches). Les planches brutes sont ensuite séchées puis corroyées de façon à être rendues stables, propres et planes aux dimensions requises; la suite dépendra de l'application donc du corps de métier.
@@ -591,11 +607,48 @@
           <t>Classements des bois</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'usage que l'on veut en faire, les bois sont classés d'après différents critères. Les classements donnés ici sont inspirés des normes architecturales françaises, mais on trouvera beaucoup de similitudes dans les pays voisins.
-Classement catégoriel (selon l'essence)
-On distingue :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classements des bois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classement catégoriel (selon l'essence)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On distingue :
 les bois du nord (russes ou scandinaves) ;
 les bois tropicaux.
 Dans chaque catégorie, on séparera les bois feuillus et les bois résineux.
@@ -608,21 +661,168 @@
 Densité = Masse volumique du produit (ici le bois)
 L'unité de la masse volumique est exprimée selon les applications en kg/dm³ ou t/m³ mais l'unité légale est kg/dm³.
 On note ainsi à titre de comparaison les densités du plomb (11,4 kg/dm³), de l'acier (7,8 kg/dm³), du béton armé (2,5 kg/dm³). On considère les bois durs (chêne, doussié) pour une densité comprise entre 0,75 à 0,90 kg/dm³, et normaux (sapin, acajou) quand elle est comprise entre 0,55 à 0,65 kg/dm³. Certains bois (l'ébène, le bois de fer) ont une densité supérieure ou égale à 1.
-Classement d'aspect
-Ce classement se fait en fonction des imperfections du bois :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classements des bois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Classement d'aspect</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ce classement se fait en fonction des imperfections du bois :
 liées à sa structure (quantité de nœuds, anomalies de croissance) ;
 liées au débit (flaches) ;
 liées au retrait dû au séchage. Les déformations dues au séchage sont différentes suivant la position de la planche dans la bille : lors du séchage, le bois se retire davantage côté écorce (bois plus jeune) que côté cœur (bois parfait). Le séchage donne aussi lieu à des fentes, des gerces. Il y a plusieurs techniques de séchages (étuves, séchage naturel – quasi inexistant –, etc.) ;
-liées à des imperfections ou des altérations (poches de résines, bleuissement, échauffure, pourriture, gélivure, roulure, lunure, blessure).
-Classement mécanique ou structurel
-Il s'attache principalement à la résistance du bois, par exemple la capacité de résistance mécanique à la flexion.
-Propriétés mécaniques
-Compression : axiale (fil du bois vertical). Bonne résistance, mais comme pour tout matériau risque de flambage pour les pièces longues.
+liées à des imperfections ou des altérations (poches de résines, bleuissement, échauffure, pourriture, gélivure, roulure, lunure, blessure).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classements des bois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classement mécanique ou structurel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'attache principalement à la résistance du bois, par exemple la capacité de résistance mécanique à la flexion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classements des bois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Classement mécanique ou structurel</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Propriétés mécaniques</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Compression : axiale (fil du bois vertical). Bonne résistance, mais comme pour tout matériau risque de flambage pour les pièces longues.
 Traction : axiale, résistance très forte ; transversale (fil du bois horizontal), résistance plus faible, selon les essences.
 Flexion : résistance variable selon les essences et la qualité du bois.
 Ces données sont surtout valables pour la charpente, la menuiserie et l'ébénisterie.
-Taux d'humidité
-Le taux d'humidité du bois détermine aussi son utilisation :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classements des bois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Classement mécanique ou structurel</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Taux d'humidité</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taux d'humidité du bois détermine aussi son utilisation :
 Taux d'humidité de 18 à 22 % : constructions exposées à l'humidité.
 Taux d'humidité de 16 à 20 % : constructions en local couvert ouvert (tribunes de sport, hangars...).
 Taux d'humidité de 13 à 17 % : constructions en local couvert clos non chauffé (charpentes).
@@ -630,44 +830,155 @@
 Détermination du taux d'humidité :
 Valeur du taux (H%) = [ Poids à l'état initial - Poids de matières sèches ] / Po * 100
 Avec Po : Poids de matières sèches
-Durabilité
-Les feuillus ont généralement une meilleure résistance que les résineux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classements des bois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Classement mécanique ou structurel</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Durabilité</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuillus ont généralement une meilleure résistance que les résineux.
 On prend aussi en compte la notion de durabilité des bois selon l'usage que l'on veut en faire.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Travail_du_bois</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Outillage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'électricité a révolutionné les outillages utilisés par les artisans du bois.
-Outils de mesure
-L'outil de mesure le plus utilisé par un charpentier est un mètre ruban, par un menuisier un mètre ruban et un réglet (30 à 50 cm), par un ébéniste un réglet et un petit réglet (15 à 20 cm). Ils utilisent aussi le pied à coulisse. Le compas est également très utilisé pour les rapports de cotes. Le trusquin est employé pour tracer des parallèles ou reporter des cotes.
-Scies
-La scie circulaire. Quand elle est portative, elle est composée d'un moteur puissant tournant une lame dentée, elle se porte à la main et permet d'effectuer des découpes assez grossières. Sur table elle permet des coupes rectilignes très précises.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'électricité a révolutionné les outillages utilisés par les artisans du bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Outillage</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Outils de mesure</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'outil de mesure le plus utilisé par un charpentier est un mètre ruban, par un menuisier un mètre ruban et un réglet (30 à 50 cm), par un ébéniste un réglet et un petit réglet (15 à 20 cm). Ils utilisent aussi le pied à coulisse. Le compas est également très utilisé pour les rapports de cotes. Le trusquin est employé pour tracer des parallèles ou reporter des cotes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Outillage</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Scies</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>La scie circulaire. Quand elle est portative, elle est composée d'un moteur puissant tournant une lame dentée, elle se porte à la main et permet d'effectuer des découpes assez grossières. Sur table elle permet des coupes rectilignes très précises.
 la scie égoïne (manuelle ou électrique) a un usage universel, depuis la coupe de branche jusqu'à la découpe précise pour faire des montages. C'est la scie classique, dont des variations spécialisées portent un nom différent (scie à émonder, scie sabre, etc.)
 la famille des scie japonaise, qui ont la particularité de travailler en tirant et non en poussant comme la plupart des scies à main occidentales. Il en existe pour toutes les applications (généraliste, a onglets, etc.)
 la scie à ruban, c'est une scie à lame (en forme de ruban), montée sur deux volants supportés par un bâti, qui permet des découpes très précises. Contrairement à la scie sauteuse, portable, c'est le bois que l'on déplace sur un plateau lors de la découpe. Une grande scie à ruban permet le débit des billes en planches et le délignage. Une plus petite permet le délignage et le chantournement, il existe plusieurs lames pour cette scie selon son utilisation, une lame fine et peu large permet de chantourner.
@@ -675,48 +986,121 @@
 la scie à onglet (manuelle ou électrique), elle permet de couper des tasseaux selon un angle très précis, afin d'effectuer un montage. La scie manuelle est souvent plus précise.
 la scie à araser : manuelle, sert à mettre de niveau deux pièces de bois ou à des coupes fines.
 la scie à chantourner : permet de faire des découpes alambiquées. Les lames les plus fines (sans ergots) permettent de faire de la dentelle sur bois.
-la tronçonneuse : elle sert à tronçonner. Utilisée par les bûcherons, souvent dotée d'un moteur fonctionnant à l'essence, elle est munie d'une chaîne qui porte des dents aiguisées. On ne peut pas vraiment la mettre dans la catégorie des scies bien qu'elle serve aussi à couper le bois.
-Ciseaux, bédanes et rabots
-Les ciseaux à bois : outils composés d'un manche de petite taille (15 cm de long environ) prolongés d'une barre de métal rectangulaire aiguisée au bout (longueur: 20 cm environ -neuve-, épaisseur environ 0,5 cm), leur largeur va généralement de 0,8 cm à 3 cm. Utilisés par tous les corps de métiers travaillant le bois mais plus particulièrement par les ébénistes qu'ils utilisent pour des travaux délicats (queue d'aronde, feuillure, rainure...).
+la tronçonneuse : elle sert à tronçonner. Utilisée par les bûcherons, souvent dotée d'un moteur fonctionnant à l'essence, elle est munie d'une chaîne qui porte des dents aiguisées. On ne peut pas vraiment la mettre dans la catégorie des scies bien qu'elle serve aussi à couper le bois.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Outillage</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ciseaux, bédanes et rabots</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Les ciseaux à bois : outils composés d'un manche de petite taille (15 cm de long environ) prolongés d'une barre de métal rectangulaire aiguisée au bout (longueur: 20 cm environ -neuve-, épaisseur environ 0,5 cm), leur largeur va généralement de 0,8 cm à 3 cm. Utilisés par tous les corps de métiers travaillant le bois mais plus particulièrement par les ébénistes qu'ils utilisent pour des travaux délicats (queue d'aronde, feuillure, rainure...).
 Les bédanes : outils composés d'un manche comme les ciseaux mais dont la lame est une barre de métal de section carré, les largeurs vont de 0,5 cm à 1,5 cm environ, le bédane sert à faire des mortaises.
 Les rabots : composés d'une lame et d'un corps en bois rectangulaire ou d'un corps en fer ; la lame s'insère dans le corps et peut se positionner de façon à avoir plus ou moins de « mordant », les rabots en bois comportent souvent une semelle en bois plus dure que le reste du corps, il en existe de toutes les tailles, on les utilise pour différentes sortes de travaux et dans tous les corps de métiers du bois.
-L'ébauchoir : même principe que le ciseau à bois mais avec un manche en acier. Cet outil est fait d'un seul bloc. Surtout utilisé dans le taillage de charpente pour effectuer les mortaises des assemblages.
-Autres
-la défonceuse est un outil qui permet d'usiner une pièce. Elle entraine en rotation une fraise positionnée à une profondeur prédéfinie ou placée sur un équipage plongeant
+L'ébauchoir : même principe que le ciseau à bois mais avec un manche en acier. Cet outil est fait d'un seul bloc. Surtout utilisé dans le taillage de charpente pour effectuer les mortaises des assemblages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Outillage</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>la défonceuse est un outil qui permet d'usiner une pièce. Elle entraine en rotation une fraise positionnée à une profondeur prédéfinie ou placée sur un équipage plongeant
 la toupie est similaire à une défonceuse montée sous une table et dont la fraise dépasse sur le dessus; utilisée pour réaliser des moulures, nommée par sa ressemblance avec une toupie qui tournerait sur la table de coupe. Sa version portative est aussi appelée moulureuse ou défonceuse de chant.
 la mortaiseuse est une défonceuse spécialisée dans la taille des mortaises, de dimensions et de positionnement précis.
 L'herminette est une hachette à lame transverse, qui servait à équarrir les poutres et pièces de charpente marine</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Travail_du_bois</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Finitions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ponçage
-Le ponçage du bois se fait à l'aide de papier abrasif silex ou corindon dont il existe plusieurs tailles de grains. Chaque taille de grains est définie par un chiffre correspondant au nombre de grains par cm². Plus le grain du papier est fin, plus le chiffre inscrit au dos de la feuille de papier à poncer est grand :
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Le ponçage</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ponçage du bois se fait à l'aide de papier abrasif silex ou corindon dont il existe plusieurs tailles de grains. Chaque taille de grains est définie par un chiffre correspondant au nombre de grains par cm². Plus le grain du papier est fin, plus le chiffre inscrit au dos de la feuille de papier à poncer est grand :
 20 correspond à un très gros grain;
 80 correspond à un gros grain;
 120 correspond à un grain moyen;
@@ -724,55 +1108,239 @@
 280 correspond à un grain très fin.
 Il existe des papiers à grain encore plus fin. Ils sont utilisés pour les matières composites ou les métaux (par ex. en carrosserie).
 Le choix de la taille du grain du papier à poncer se fait en fonction du degré de finition que l'on veut obtenir (aspect granuleux, lisse, très lisse). Lorsque du papier à grain extra fin comme du 1500 ou du 2000 est utilisé, ce n'est que pour le ponçage final du bois dont la densité est égale ou supérieure à 1 tel que le bois d'ébène, le buis, le bois de fer ...
-Chimiques
-En règle générale, le bois est poreux. Pour le stabiliser et améliorer ses propriétés mécaniques ou esthétiques, on applique des finitions sous forme de produits chimiques, telles que des anti-fongiques, anti-parasitiques, des saturateurs, des huiles, des bouche-pores, des lasures, des laques, des vernis, des teintures.
-Finition à l'huile
-Huile d'abrasin : huile provenant d'arbres des régions orientales et servant principalement à fabriquer des finis pour le bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Finitions</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Chimiques</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En règle générale, le bois est poreux. Pour le stabiliser et améliorer ses propriétés mécaniques ou esthétiques, on applique des finitions sous forme de produits chimiques, telles que des anti-fongiques, anti-parasitiques, des saturateurs, des huiles, des bouche-pores, des lasures, des laques, des vernis, des teintures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Finitions</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Chimiques</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Finition à l'huile</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Huile d'abrasin : huile provenant d'arbres des régions orientales et servant principalement à fabriquer des finis pour le bois.
 Certaines caractéristiques intéressantes :
 se pose avec un pinceau ou une guenille et s'essuie environ 5 minutes après la pose (requiert plusieurs couches, facilement jusqu'à 5 ou 6) ;
 sèche facilement et complètement ;
 donne un fini entre mat et très luisant, dépendant de la quantité de diluant ou de scellant qu'on y ajoute. Jusqu'à 1/3 de scellant donne un fini plus mat ; aucun ajout de diluant ou scellant donne un fini très luisant ;
-donne toujours un fini dur et imperméable.
-Le vernis
-Dans la section de l'huile d'abrasin, la formule suivante donne aussi un fini plus dur et plus soyeux. La formule est la suivante : une partie de vernis pour trois parties d'huile d'abrasin. Il faut poncer entre chaque couche et trois couches sont nécessaires.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Travail_du_bois</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+donne toujours un fini dur et imperméable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Finitions</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Chimiques</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Le vernis</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la section de l'huile d'abrasin, la formule suivante donne aussi un fini plus dur et plus soyeux. La formule est la suivante : une partie de vernis pour trois parties d'huile d'abrasin. Il faut poncer entre chaque couche et trois couches sont nécessaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Hygiène et conditions de travail</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Les personnes travaillant le bois sont exposées à de nombreux risques d'accidents ou de maladies.
-Risques d'accidents
-Liés entre autres à l'utilisation de machines, dont certaines particulièrement dangereuses.
-Risques de maladies
-Les nombreuses manutentions de charges lourdes que l'on trouve dans toute la filière bois peuvent provoquer des troubles musculo-squelettiques[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hygiène et conditions de travail</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Risques d'accidents</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liés entre autres à l'utilisation de machines, dont certaines particulièrement dangereuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travail_du_bois</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hygiène et conditions de travail</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Risques de maladies</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nombreuses manutentions de charges lourdes que l'on trouve dans toute la filière bois peuvent provoquer des troubles musculo-squelettiques.
 Le travail du bois proprement dit est souvent à l'origine d'un environnement bruyant, susceptible de provoquer des surdités.
-Il expose aussi à de nombreux agents allergisants (cutanés ou respiratoires) ainsi qu'à des cancérogènes (parmi lesquels figurent en première place les poussières de bois)[2].
-La suppression ou la diminution de ces risques passe par la réduction du bruit des machines (de préférence par un traitement à la source), la réduction des empoussièrements par captage des poussières à l'émission[3] et la suppression des agents cancérogènes lorsque cela est possible.
+Il expose aussi à de nombreux agents allergisants (cutanés ou respiratoires) ainsi qu'à des cancérogènes (parmi lesquels figurent en première place les poussières de bois).
+La suppression ou la diminution de ces risques passe par la réduction du bruit des machines (de préférence par un traitement à la source), la réduction des empoussièrements par captage des poussières à l'émission et la suppression des agents cancérogènes lorsque cela est possible.
 </t>
         </is>
       </c>
